--- a/outputs/matching_variables/our_pretrained_AgriBERT/agriBERT_validation_evaluation.xlsx
+++ b/outputs/matching_variables/our_pretrained_AgriBERT/agriBERT_validation_evaluation.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mes Donnees\GitHub\MAEVa-v3\outputs\matching_variables\our_pretrained_AgriBERT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423C29C5-2F81-4D5B-B4A9-6D2CE4B0A048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12744" yWindow="1008" windowWidth="8496" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Validation Details" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -446,9 +452,6 @@
     <t>Total Phrases</t>
   </si>
   <si>
-    <t>CMP (%)</t>
-  </si>
-  <si>
     <t>Top 1</t>
   </si>
   <si>
@@ -459,13 +462,16 @@
   </si>
   <si>
     <t>Top 10</t>
+  </si>
+  <si>
+    <t>P@ (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,11 +534,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -574,7 +588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -606,9 +620,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,6 +672,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,14 +865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -862,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -882,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -902,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -922,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -942,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -962,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -982,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1062,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1082,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1222,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1242,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1262,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1342,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1362,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1382,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1402,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1422,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1462,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1482,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1522,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1542,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1562,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1582,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1602,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1622,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1642,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1662,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1682,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1702,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1722,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1742,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1762,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1782,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1802,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1842,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -1862,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1882,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1902,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1922,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1942,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1962,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1982,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2002,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2022,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -2042,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2062,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2082,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2102,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -2122,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -2142,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -2162,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>69</v>
       </c>
@@ -2182,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>70</v>
       </c>
@@ -2202,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -2222,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>72</v>
       </c>
@@ -2242,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>73</v>
       </c>
@@ -2262,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>74</v>
       </c>
@@ -2282,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>75</v>
       </c>
@@ -2302,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2322,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -2342,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>78</v>
       </c>
@@ -2362,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -2382,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -2402,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2422,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2442,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2462,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -2482,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -2502,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -2528,14 +2578,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -2546,12 +2598,12 @@
         <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>144</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -2560,12 +2612,12 @@
         <v>84</v>
       </c>
       <c r="D2">
-        <v>41.66666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>41.666666666666657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>42</v>
@@ -2577,9 +2629,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4">
         <v>44</v>
@@ -2591,9 +2643,9 @@
         <v>52.38095238095238</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>51</v>
@@ -2602,7 +2654,7 @@
         <v>84</v>
       </c>
       <c r="D5">
-        <v>60.71428571428572</v>
+        <v>60.714285714285722</v>
       </c>
     </row>
   </sheetData>
